--- a/Centres/BLR/EcoWorld/inventory/cleanup_duplicates.xlsx
+++ b/Centres/BLR/EcoWorld/inventory/cleanup_duplicates.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshay.rao\Documents\Salesforce\by Centre\EcoWorld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshay.rao\Documents\CoWrks\Centres\BLR\EcoWorld\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Agreement table" sheetId="1" r:id="rId1"/>
-    <sheet name="physical table" sheetId="2" r:id="rId2"/>
-    <sheet name="SF table" sheetId="3" r:id="rId3"/>
-    <sheet name="Accounts" sheetId="4" r:id="rId4"/>
+    <sheet name="compare" sheetId="6" r:id="rId2"/>
+    <sheet name="physical table" sheetId="2" r:id="rId3"/>
+    <sheet name="SF table" sheetId="3" r:id="rId4"/>
+    <sheet name="Accounts" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Accounts!$A$1:$A$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Accounts!$A$1:$A$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'physical table'!$A$1:$B$209</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="460">
   <si>
     <t>DD No</t>
   </si>
@@ -782,9 +784,6 @@
     <t>Raghunandan Gangappa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Next Link Pvt Ltd</t>
-  </si>
-  <si>
     <t>Finaccel</t>
   </si>
   <si>
@@ -800,9 +799,6 @@
     <t>Nevatia</t>
   </si>
   <si>
-    <t>AutoNinja</t>
-  </si>
-  <si>
     <t>Arete Advisors</t>
   </si>
   <si>
@@ -845,9 +841,6 @@
     <t>Infratab</t>
   </si>
   <si>
-    <t>QA infortech</t>
-  </si>
-  <si>
     <t>JE</t>
   </si>
   <si>
@@ -1305,13 +1298,127 @@
   </si>
   <si>
     <t>Deezeno</t>
+  </si>
+  <si>
+    <t>Count of DD No</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Next Link Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Bharti Airtel Ltd</t>
+  </si>
+  <si>
+    <t>Unbox Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>JEBPO SERVICES LLP</t>
+  </si>
+  <si>
+    <t>True Caller International LLP</t>
+  </si>
+  <si>
+    <t>Lagom Labs Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Ameen Ahmed</t>
+  </si>
+  <si>
+    <t>HIL Infotech LLP</t>
+  </si>
+  <si>
+    <t>QA InfoTech</t>
+  </si>
+  <si>
+    <t>Arete Advisors LLP</t>
+  </si>
+  <si>
+    <t>OP Technologies Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Infratab Bangalore Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>AB Fortune Consultants</t>
+  </si>
+  <si>
+    <t>Mr. Raghunandan Gangappa</t>
+  </si>
+  <si>
+    <t>Azure Knowledge Corporation Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>Dhatraditya Jonnavittula</t>
+  </si>
+  <si>
+    <t>ETRUE VALUE.COM</t>
+  </si>
+  <si>
+    <t>Sandeep Kumar Nadanalige</t>
+  </si>
+  <si>
+    <t>Bharat Kumar Mallineni</t>
+  </si>
+  <si>
+    <t>Kiran Kumar</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>RR DONNELLEY INDIA OUTSOURCED PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Positive Moves India Consulting Private Limited</t>
+  </si>
+  <si>
+    <t>Roli Saxena</t>
+  </si>
+  <si>
+    <t>Qdesq</t>
+  </si>
+  <si>
+    <t>Ashish Sahu</t>
+  </si>
+  <si>
+    <t>FINACCEL PTE. LTD.</t>
+  </si>
+  <si>
+    <t>TechEmergence</t>
+  </si>
+  <si>
+    <t>EULOGIA INFOTECH PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Z Estates Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Marcellus Infotech Pvt Ltd</t>
+  </si>
+  <si>
+    <t>No of Desks</t>
+  </si>
+  <si>
+    <t>Empty Desks</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1333,16 +1440,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1365,11 +1499,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1379,6 +1535,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3231,10 +3396,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="8">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="8">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="8">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B39" s="10">
+        <v>208</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E39" s="10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B41" s="8">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3252,7 +3994,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3260,7 +4002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +4010,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +4018,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3284,7 +4026,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3292,7 +4034,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +4042,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +4050,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3316,7 +4058,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3324,7 +4066,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -3332,7 +4074,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -3340,7 +4082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -3348,23 +4090,23 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -3372,7 +4114,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -3380,7 +4122,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -3393,82 +4135,82 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3476,7 +4218,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -3484,7 +4226,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -3492,15 +4234,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -3508,7 +4250,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -3516,7 +4258,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -3524,15 +4266,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -3540,7 +4282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
@@ -3548,7 +4290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
@@ -3556,7 +4298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -3564,7 +4306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -3572,7 +4314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
@@ -3580,29 +4322,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
@@ -3610,37 +4352,37 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -3648,7 +4390,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>69</v>
       </c>
@@ -3656,15 +4398,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>71</v>
       </c>
@@ -3672,7 +4414,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
@@ -3680,7 +4422,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>74</v>
       </c>
@@ -3688,7 +4430,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>75</v>
       </c>
@@ -3696,7 +4438,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
@@ -3704,7 +4446,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3712,7 +4454,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>78</v>
       </c>
@@ -3720,7 +4462,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>79</v>
       </c>
@@ -3728,7 +4470,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>80</v>
       </c>
@@ -3736,7 +4478,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>81</v>
       </c>
@@ -3744,39 +4486,39 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
@@ -3784,195 +4526,195 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>122</v>
       </c>
@@ -3983,50 +4725,50 @@
         <v>123</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>130</v>
       </c>
@@ -4034,7 +4776,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>132</v>
       </c>
@@ -4042,7 +4784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>133</v>
       </c>
@@ -4050,7 +4792,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>134</v>
       </c>
@@ -4058,7 +4800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>135</v>
       </c>
@@ -4066,7 +4808,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>136</v>
       </c>
@@ -4074,7 +4816,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>137</v>
       </c>
@@ -4082,7 +4824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>138</v>
       </c>
@@ -4090,7 +4832,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>139</v>
       </c>
@@ -4098,7 +4840,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>140</v>
       </c>
@@ -4106,7 +4848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>141</v>
       </c>
@@ -4114,7 +4856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>142</v>
       </c>
@@ -4122,7 +4864,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>143</v>
       </c>
@@ -4130,7 +4872,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>144</v>
       </c>
@@ -4138,7 +4880,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>145</v>
       </c>
@@ -4146,7 +4888,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>146</v>
       </c>
@@ -4154,7 +4896,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>147</v>
       </c>
@@ -4162,7 +4904,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>148</v>
       </c>
@@ -4170,7 +4912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>149</v>
       </c>
@@ -4178,7 +4920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>150</v>
       </c>
@@ -4186,7 +4928,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>151</v>
       </c>
@@ -4194,7 +4936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>152</v>
       </c>
@@ -4202,7 +4944,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>153</v>
       </c>
@@ -4210,7 +4952,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>154</v>
       </c>
@@ -4218,7 +4960,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>155</v>
       </c>
@@ -4226,7 +4968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>156</v>
       </c>
@@ -4234,7 +4976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>157</v>
       </c>
@@ -4242,7 +4984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>158</v>
       </c>
@@ -4250,7 +4992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>159</v>
       </c>
@@ -4258,7 +5000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>160</v>
       </c>
@@ -4266,7 +5008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>161</v>
       </c>
@@ -4274,7 +5016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>162</v>
       </c>
@@ -4282,7 +5024,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>163</v>
       </c>
@@ -4290,7 +5032,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>164</v>
       </c>
@@ -4298,7 +5040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>165</v>
       </c>
@@ -4306,7 +5048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>166</v>
       </c>
@@ -4314,7 +5056,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>167</v>
       </c>
@@ -4322,7 +5064,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>168</v>
       </c>
@@ -4330,7 +5072,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>169</v>
       </c>
@@ -4338,7 +5080,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>170</v>
       </c>
@@ -4346,7 +5088,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>171</v>
       </c>
@@ -4354,7 +5096,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>172</v>
       </c>
@@ -4362,7 +5104,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>173</v>
       </c>
@@ -4370,7 +5112,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>174</v>
       </c>
@@ -4378,7 +5120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>175</v>
       </c>
@@ -4386,7 +5128,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>176</v>
       </c>
@@ -4394,7 +5136,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>177</v>
       </c>
@@ -4402,7 +5144,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>178</v>
       </c>
@@ -4410,7 +5152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>179</v>
       </c>
@@ -4418,7 +5160,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>180</v>
       </c>
@@ -4426,7 +5168,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>181</v>
       </c>
@@ -4434,7 +5176,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>182</v>
       </c>
@@ -4442,7 +5184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>183</v>
       </c>
@@ -4450,135 +5192,135 @@
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>202</v>
       </c>
@@ -4586,7 +5328,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>203</v>
       </c>
@@ -4594,7 +5336,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>204</v>
       </c>
@@ -4602,7 +5344,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>205</v>
       </c>
@@ -4610,7 +5352,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>206</v>
       </c>
@@ -4618,7 +5360,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>207</v>
       </c>
@@ -4626,7 +5368,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>208</v>
       </c>
@@ -4634,7 +5376,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>210</v>
       </c>
@@ -4642,7 +5384,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>212</v>
       </c>
@@ -4650,7 +5392,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>214</v>
       </c>
@@ -4658,7 +5400,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>215</v>
       </c>
@@ -4666,7 +5408,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>216</v>
       </c>
@@ -4674,19 +5416,19 @@
         <v>213</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>219</v>
       </c>
@@ -4694,7 +5436,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>220</v>
       </c>
@@ -4702,7 +5444,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>221</v>
       </c>
@@ -4710,7 +5452,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>222</v>
       </c>
@@ -4718,7 +5460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>224</v>
       </c>
@@ -4726,7 +5468,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>225</v>
       </c>
@@ -4734,162 +5476,170 @@
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B209" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B209">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="QA infortech"/>
+        <filter val="QA Infotech"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B209"/>
   <sheetViews>
@@ -4909,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4917,7 +5667,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5045,7 +5795,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5845,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5219,7 +5969,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -5277,7 +6027,7 @@
         <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +6157,7 @@
         <v>91</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +6165,7 @@
         <v>92</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +6173,7 @@
         <v>93</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -6033,7 +6783,7 @@
         <v>188</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -6041,7 +6791,7 @@
         <v>189</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -6049,7 +6799,7 @@
         <v>190</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -6057,7 +6807,7 @@
         <v>191</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -6065,7 +6815,7 @@
         <v>192</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -6073,7 +6823,7 @@
         <v>193</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -6081,7 +6831,7 @@
         <v>194</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -6089,7 +6839,7 @@
         <v>195</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -6097,7 +6847,7 @@
         <v>196</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -6105,7 +6855,7 @@
         <v>197</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -6113,7 +6863,7 @@
         <v>198</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -6121,7 +6871,7 @@
         <v>199</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -6383,11 +7133,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -6398,697 +7148,697 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
